--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC94F7B-EC5E-4B3A-831B-2E6ADBF7E078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C014657-0E72-4391-B5B5-FCB924E79670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,15 +55,6 @@
     <t>selectByVisibleText</t>
   </si>
   <si>
-    <t>getData=DropDownType</t>
-  </si>
-  <si>
-    <t>getData=DropDownAgencyCode</t>
-  </si>
-  <si>
-    <t>getData=DropDownYear</t>
-  </si>
-  <si>
     <t>jsClick</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Agency GL Account Profile</t>
+  </si>
+  <si>
+    <t>getData=ProfileType</t>
+  </si>
+  <si>
+    <t>getData=Agency</t>
+  </si>
+  <si>
+    <t>getData=Fiscal</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -677,7 +677,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,22 +692,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -715,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
@@ -733,13 +733,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="4">
         <v>2023</v>
@@ -751,13 +751,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4">
         <v>2023</v>
@@ -769,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4">
         <v>2023</v>
@@ -787,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4">
         <v>2023</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C014657-0E72-4391-B5B5-FCB924E79670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2228B18E-2EBB-4A7A-BA9A-7F0E13189A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Keyword</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>getData=Fiscal</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_ListView_D3</t>
   </si>
 </sst>
 </file>
@@ -220,12 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,14 +567,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -575,10 +582,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -589,10 +596,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -600,13 +607,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -614,7 +621,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -627,6 +634,15 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -665,6 +681,11 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -676,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26636313-6169-4514-A1B1-F9469BDC1BB7}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
